--- a/data/originals/percentage_by_vars.xlsx
+++ b/data/originals/percentage_by_vars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="922">
   <si>
     <t xml:space="preserve">column</t>
   </si>
@@ -959,9 +959,6 @@
     <t xml:space="preserve">Porphyrobacter_G</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Erysipelotrichaceae UCG-007_G</t>
   </si>
   <si>
@@ -1413,9 +1410,6 @@
   </si>
   <si>
     <t xml:space="preserve">Education_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pets_type</t>
   </si>
   <si>
     <t xml:space="preserve">Alteromonadaceae_F</t>
@@ -5696,7 +5690,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="n">
-        <v>87.93</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="324">
@@ -5768,7 +5762,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n">
-        <v>87.66</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="333">
@@ -5776,7 +5770,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="n">
-        <v>87.4</v>
+        <v>87.14</v>
       </c>
     </row>
     <row r="334">
@@ -5848,7 +5842,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>87.14</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="343">
@@ -5896,7 +5890,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="n">
-        <v>86.88</v>
+        <v>86.61</v>
       </c>
     </row>
     <row r="349">
@@ -5904,7 +5898,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n">
-        <v>86.61</v>
+        <v>86.35</v>
       </c>
     </row>
     <row r="350">
@@ -5960,7 +5954,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="n">
-        <v>86.35</v>
+        <v>86.09</v>
       </c>
     </row>
     <row r="357">
@@ -6032,7 +6026,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="n">
-        <v>86.09</v>
+        <v>85.83</v>
       </c>
     </row>
     <row r="366">
@@ -6056,7 +6050,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="n">
-        <v>85.83</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="369">
@@ -6064,7 +6058,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="n">
-        <v>85.56</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="370">
@@ -6088,7 +6082,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="n">
-        <v>85.3</v>
+        <v>85.04</v>
       </c>
     </row>
     <row r="373">
@@ -6152,7 +6146,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="n">
-        <v>85.04</v>
+        <v>84.78</v>
       </c>
     </row>
     <row r="381">
@@ -6168,7 +6162,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="n">
-        <v>84.78</v>
+        <v>84.51</v>
       </c>
     </row>
     <row r="383">
@@ -6216,7 +6210,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="n">
-        <v>84.51</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="389">
@@ -6288,7 +6282,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="n">
-        <v>84.25</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="398">
@@ -6344,7 +6338,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="n">
-        <v>83.73</v>
+        <v>83.46</v>
       </c>
     </row>
     <row r="405">
@@ -6352,7 +6346,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="n">
-        <v>83.46</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="406">
@@ -6360,7 +6354,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="n">
-        <v>83.2</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="407">
@@ -6376,7 +6370,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="n">
-        <v>82.94</v>
+        <v>82.68</v>
       </c>
     </row>
     <row r="409">
@@ -6416,7 +6410,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="n">
-        <v>82.68</v>
+        <v>82.41</v>
       </c>
     </row>
     <row r="414">
@@ -6448,7 +6442,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="n">
-        <v>82.41</v>
+        <v>82.15</v>
       </c>
     </row>
     <row r="418">
@@ -6488,7 +6482,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="n">
-        <v>82.15</v>
+        <v>81.89</v>
       </c>
     </row>
     <row r="423">
@@ -6512,7 +6506,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="n">
-        <v>81.89</v>
+        <v>81.63</v>
       </c>
     </row>
     <row r="426">
@@ -6552,7 +6546,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="n">
-        <v>81.63</v>
+        <v>81.1</v>
       </c>
     </row>
     <row r="431">
@@ -6592,7 +6586,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="n">
-        <v>81.1</v>
+        <v>80.84</v>
       </c>
     </row>
     <row r="436">
@@ -6608,7 +6602,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="n">
-        <v>80.84</v>
+        <v>80.58</v>
       </c>
     </row>
     <row r="438">
@@ -6624,7 +6618,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="n">
-        <v>80.58</v>
+        <v>80.31</v>
       </c>
     </row>
     <row r="440">
@@ -6648,7 +6642,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="n">
-        <v>80.31</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="443">
@@ -6656,7 +6650,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="n">
-        <v>80.05</v>
+        <v>79.79</v>
       </c>
     </row>
     <row r="444">
@@ -6672,7 +6666,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="n">
-        <v>79.79</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="446">
@@ -6704,7 +6698,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="n">
-        <v>79.53</v>
+        <v>79.27</v>
       </c>
     </row>
     <row r="450">
@@ -6720,7 +6714,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="n">
-        <v>79.27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="452">
@@ -6768,7 +6762,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="n">
-        <v>79</v>
+        <v>78.74</v>
       </c>
     </row>
     <row r="458">
@@ -6800,7 +6794,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="n">
-        <v>78.74</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="462">
@@ -6816,7 +6810,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="n">
-        <v>78.48</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="464">
@@ -6832,7 +6826,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="n">
-        <v>78.22</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="466">
@@ -6864,7 +6858,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="n">
-        <v>77.95</v>
+        <v>77.69</v>
       </c>
     </row>
     <row r="470">
@@ -6872,7 +6866,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="n">
-        <v>77.95</v>
+        <v>77.69</v>
       </c>
     </row>
     <row r="471">
@@ -6896,7 +6890,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="n">
-        <v>77.69</v>
+        <v>77.43</v>
       </c>
     </row>
     <row r="474">
@@ -6904,7 +6898,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="n">
-        <v>77.69</v>
+        <v>77.43</v>
       </c>
     </row>
     <row r="475">
@@ -6936,7 +6930,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="n">
-        <v>77.43</v>
+        <v>77.17</v>
       </c>
     </row>
     <row r="479">
@@ -6944,7 +6938,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="n">
-        <v>77.43</v>
+        <v>77.17</v>
       </c>
     </row>
     <row r="480">
@@ -6976,7 +6970,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="n">
-        <v>77.17</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="484">
@@ -6984,7 +6978,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="n">
-        <v>77.17</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="485">
@@ -7024,7 +7018,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="n">
-        <v>76.9</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="490">
@@ -7032,7 +7026,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="n">
-        <v>76.9</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="491">
@@ -7040,7 +7034,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="n">
-        <v>76.64</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="492">
@@ -7048,7 +7042,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="n">
-        <v>76.64</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="493">
@@ -7064,7 +7058,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="n">
-        <v>76.38</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="495">
@@ -7072,7 +7066,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="n">
-        <v>76.38</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="496">
@@ -7128,7 +7122,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="n">
-        <v>76.12</v>
+        <v>75.85</v>
       </c>
     </row>
     <row r="503">
@@ -7136,7 +7130,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="n">
-        <v>76.12</v>
+        <v>75.85</v>
       </c>
     </row>
     <row r="504">
@@ -7160,7 +7154,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="n">
-        <v>75.85</v>
+        <v>75.59</v>
       </c>
     </row>
     <row r="507">
@@ -7168,7 +7162,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="n">
-        <v>75.85</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="508">
@@ -7176,7 +7170,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="n">
-        <v>75.59</v>
+        <v>75.07</v>
       </c>
     </row>
     <row r="509">
@@ -7184,7 +7178,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="n">
-        <v>75.33</v>
+        <v>75.07</v>
       </c>
     </row>
     <row r="510">
@@ -7200,7 +7194,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="n">
-        <v>75.07</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="512">
@@ -7208,7 +7202,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="n">
-        <v>75.07</v>
+        <v>74.54</v>
       </c>
     </row>
     <row r="513">
@@ -7216,7 +7210,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="n">
-        <v>74.8</v>
+        <v>74.54</v>
       </c>
     </row>
     <row r="514">
@@ -7224,7 +7218,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="n">
-        <v>74.54</v>
+        <v>74.02</v>
       </c>
     </row>
     <row r="515">
@@ -7232,7 +7226,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n">
-        <v>74.54</v>
+        <v>74.02</v>
       </c>
     </row>
     <row r="516">
@@ -7240,7 +7234,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="n">
-        <v>74.02</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="517">
@@ -7248,7 +7242,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="n">
-        <v>74.02</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="518">
@@ -7256,7 +7250,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="n">
-        <v>73.75</v>
+        <v>73.49</v>
       </c>
     </row>
     <row r="519">
@@ -7264,7 +7258,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="n">
-        <v>73.75</v>
+        <v>73.49</v>
       </c>
     </row>
     <row r="520">
@@ -7280,7 +7274,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="n">
-        <v>73.49</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="522">
@@ -7288,7 +7282,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="n">
-        <v>73.49</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="523">
@@ -7312,7 +7306,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="n">
-        <v>73.23</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="526">
@@ -7320,7 +7314,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="n">
-        <v>73.23</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="527">
@@ -7336,7 +7330,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="n">
-        <v>72.7</v>
+        <v>72.44</v>
       </c>
     </row>
     <row r="529">
@@ -7344,7 +7338,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="n">
-        <v>72.7</v>
+        <v>72.44</v>
       </c>
     </row>
     <row r="530">
@@ -7360,7 +7354,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="n">
-        <v>72.44</v>
+        <v>72.18</v>
       </c>
     </row>
     <row r="532">
@@ -7368,7 +7362,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="n">
-        <v>72.44</v>
+        <v>72.18</v>
       </c>
     </row>
     <row r="533">
@@ -7376,7 +7370,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="n">
-        <v>72.18</v>
+        <v>71.92</v>
       </c>
     </row>
     <row r="534">
@@ -7384,7 +7378,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="n">
-        <v>72.18</v>
+        <v>71.65</v>
       </c>
     </row>
     <row r="535">
@@ -7392,7 +7386,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="n">
-        <v>71.92</v>
+        <v>71.65</v>
       </c>
     </row>
     <row r="536">
@@ -7424,7 +7418,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="n">
-        <v>71.65</v>
+        <v>71.39</v>
       </c>
     </row>
     <row r="540">
@@ -7432,7 +7426,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="n">
-        <v>71.65</v>
+        <v>71.39</v>
       </c>
     </row>
     <row r="541">
@@ -7448,7 +7442,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="n">
-        <v>71.39</v>
+        <v>71.13</v>
       </c>
     </row>
     <row r="543">
@@ -7456,7 +7450,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="n">
-        <v>71.39</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="544">
@@ -7464,7 +7458,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="n">
-        <v>71.13</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="545">
@@ -7480,7 +7474,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="n">
-        <v>70.87</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="547">
@@ -7488,7 +7482,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="n">
-        <v>70.87</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="548">
@@ -7528,7 +7522,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="n">
-        <v>70.6</v>
+        <v>70.34</v>
       </c>
     </row>
     <row r="553">
@@ -7536,7 +7530,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="n">
-        <v>70.6</v>
+        <v>70.34</v>
       </c>
     </row>
     <row r="554">
@@ -7552,7 +7546,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="n">
-        <v>70.34</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="556">
@@ -7560,7 +7554,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="n">
-        <v>70.34</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="557">
@@ -7584,7 +7578,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="n">
-        <v>70.08</v>
+        <v>69.82</v>
       </c>
     </row>
     <row r="560">
@@ -7592,7 +7586,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="n">
-        <v>70.08</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="561">
@@ -7600,7 +7594,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="n">
-        <v>69.82</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="562">
@@ -7608,7 +7602,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="n">
-        <v>69.55</v>
+        <v>69.29</v>
       </c>
     </row>
     <row r="563">
@@ -7616,7 +7610,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="n">
-        <v>69.55</v>
+        <v>69.29</v>
       </c>
     </row>
     <row r="564">
@@ -7648,7 +7642,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="n">
-        <v>69.29</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="568">
@@ -7656,7 +7650,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="n">
-        <v>69.29</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="569">
@@ -7664,7 +7658,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="n">
-        <v>69.03</v>
+        <v>68.77</v>
       </c>
     </row>
     <row r="570">
@@ -7672,7 +7666,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="n">
-        <v>69.03</v>
+        <v>68.77</v>
       </c>
     </row>
     <row r="571">
@@ -7688,7 +7682,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="n">
-        <v>68.77</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="573">
@@ -7696,7 +7690,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="n">
-        <v>68.77</v>
+        <v>68.24</v>
       </c>
     </row>
     <row r="574">
@@ -7704,7 +7698,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="n">
-        <v>68.5</v>
+        <v>68.24</v>
       </c>
     </row>
     <row r="575">
@@ -7720,7 +7714,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="n">
-        <v>68.24</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="577">
@@ -7728,7 +7722,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="n">
-        <v>68.24</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="578">
@@ -7752,7 +7746,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="n">
-        <v>67.98</v>
+        <v>67.45</v>
       </c>
     </row>
     <row r="581">
@@ -7760,7 +7754,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="n">
-        <v>67.98</v>
+        <v>67.45</v>
       </c>
     </row>
     <row r="582">
@@ -7776,7 +7770,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="n">
-        <v>67.45</v>
+        <v>67.19</v>
       </c>
     </row>
     <row r="584">
@@ -7784,7 +7778,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="n">
-        <v>67.45</v>
+        <v>67.19</v>
       </c>
     </row>
     <row r="585">
@@ -7816,7 +7810,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="n">
-        <v>67.19</v>
+        <v>66.93</v>
       </c>
     </row>
     <row r="589">
@@ -7824,7 +7818,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="n">
-        <v>67.19</v>
+        <v>66.93</v>
       </c>
     </row>
     <row r="590">
@@ -7840,7 +7834,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="n">
-        <v>66.93</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="592">
@@ -7848,7 +7842,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="n">
-        <v>66.93</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="593">
@@ -7864,7 +7858,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="n">
-        <v>66.67</v>
+        <v>66.4</v>
       </c>
     </row>
     <row r="595">
@@ -7872,7 +7866,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="n">
-        <v>66.67</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="596">
@@ -7880,7 +7874,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="n">
-        <v>66.4</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="597">
@@ -7896,7 +7890,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="n">
-        <v>66.14</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="599">
@@ -7904,7 +7898,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="n">
-        <v>66.14</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="600">
@@ -7912,7 +7906,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="n">
-        <v>65.88</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="601">
@@ -7920,7 +7914,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="n">
-        <v>65.88</v>
+        <v>65.35</v>
       </c>
     </row>
     <row r="602">
@@ -7928,7 +7922,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="n">
-        <v>65.62</v>
+        <v>65.35</v>
       </c>
     </row>
     <row r="603">
@@ -7952,7 +7946,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="n">
-        <v>65.35</v>
+        <v>64.83</v>
       </c>
     </row>
     <row r="606">
@@ -7960,7 +7954,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="n">
-        <v>65.35</v>
+        <v>64.83</v>
       </c>
     </row>
     <row r="607">
@@ -7968,7 +7962,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="n">
-        <v>64.83</v>
+        <v>64.57</v>
       </c>
     </row>
     <row r="608">
@@ -7976,7 +7970,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="n">
-        <v>64.83</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="609">
@@ -7984,7 +7978,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="n">
-        <v>64.57</v>
+        <v>62.99</v>
       </c>
     </row>
     <row r="610">
@@ -7992,7 +7986,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="n">
-        <v>63.78</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="611">
@@ -8000,7 +7994,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="n">
-        <v>62.99</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="612">
@@ -8008,7 +8002,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="n">
-        <v>62.73</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="613">
@@ -8016,7 +8010,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="n">
-        <v>62.73</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="614">
@@ -8048,7 +8042,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="n">
-        <v>62.2</v>
+        <v>61.94</v>
       </c>
     </row>
     <row r="618">
@@ -8056,7 +8050,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="n">
-        <v>62.2</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="619">
@@ -8064,7 +8058,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="n">
-        <v>61.94</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="620">
@@ -8096,7 +8090,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="n">
-        <v>61.68</v>
+        <v>61.42</v>
       </c>
     </row>
     <row r="624">
@@ -8104,7 +8098,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="n">
-        <v>61.68</v>
+        <v>61.42</v>
       </c>
     </row>
     <row r="625">
@@ -8112,7 +8106,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="n">
-        <v>61.42</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="626">
@@ -8120,7 +8114,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="n">
-        <v>61.42</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="627">
@@ -8128,7 +8122,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="n">
-        <v>60.89</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="628">
@@ -8136,7 +8130,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="n">
-        <v>60.37</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="629">
@@ -8144,7 +8138,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="n">
-        <v>60.1</v>
+        <v>59.32</v>
       </c>
     </row>
     <row r="630">
@@ -8152,7 +8146,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="n">
-        <v>59.84</v>
+        <v>59.32</v>
       </c>
     </row>
     <row r="631">
@@ -8160,7 +8154,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="n">
-        <v>59.32</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="632">
@@ -8168,7 +8162,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="n">
-        <v>59.32</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="633">
@@ -8184,7 +8178,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="n">
-        <v>59.06</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="635">
@@ -8192,7 +8186,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="n">
-        <v>59.06</v>
+        <v>58.01</v>
       </c>
     </row>
     <row r="636">
@@ -8200,7 +8194,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="n">
-        <v>58.79</v>
+        <v>58.01</v>
       </c>
     </row>
     <row r="637">
@@ -8208,7 +8202,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="n">
-        <v>58.01</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="638">
@@ -8216,7 +8210,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="n">
-        <v>58.01</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="639">
@@ -8224,7 +8218,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="n">
-        <v>56.69</v>
+        <v>56.17</v>
       </c>
     </row>
     <row r="640">
@@ -8256,7 +8250,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="n">
-        <v>56.17</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="644">
@@ -8264,7 +8258,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="n">
-        <v>56.17</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="645">
@@ -8272,7 +8266,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="n">
-        <v>55.91</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="646">
@@ -8280,7 +8274,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="n">
-        <v>55.91</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="647">
@@ -8288,7 +8282,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="n">
-        <v>55.64</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="648">
@@ -8296,7 +8290,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="n">
-        <v>55.64</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="649">
@@ -8304,7 +8298,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="n">
-        <v>55.38</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="650">
@@ -8312,7 +8306,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="n">
-        <v>55.38</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="651">
@@ -8320,7 +8314,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="n">
-        <v>55.12</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="652">
@@ -8328,7 +8322,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="n">
-        <v>54.86</v>
+        <v>54.59</v>
       </c>
     </row>
     <row r="653">
@@ -8336,7 +8330,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="n">
-        <v>54.86</v>
+        <v>54.33</v>
       </c>
     </row>
     <row r="654">
@@ -8344,7 +8338,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="n">
-        <v>54.59</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="655">
@@ -8352,7 +8346,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="n">
-        <v>54.33</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="656">
@@ -8360,7 +8354,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="n">
-        <v>53.54</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="657">
@@ -8368,7 +8362,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="n">
-        <v>53.54</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="658">
@@ -8384,7 +8378,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="n">
-        <v>53.28</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="660">
@@ -8392,7 +8386,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="n">
-        <v>53.28</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="661">
@@ -8408,7 +8402,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="n">
-        <v>52.49</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="663">
@@ -8416,7 +8410,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="n">
-        <v>52.49</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="664">
@@ -8424,7 +8418,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="n">
-        <v>52.23</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="665">
@@ -8432,7 +8426,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="n">
-        <v>52.23</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="666">
@@ -8448,7 +8442,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="n">
-        <v>51.97</v>
+        <v>51.18</v>
       </c>
     </row>
     <row r="668">
@@ -8456,7 +8450,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="n">
-        <v>51.97</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="669">
@@ -8464,7 +8458,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="n">
-        <v>51.18</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="670">
@@ -8480,7 +8474,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="n">
-        <v>50.92</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="672">
@@ -8488,7 +8482,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="n">
-        <v>50.92</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="673">
@@ -8512,7 +8506,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="n">
-        <v>50.66</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="676">
@@ -8520,7 +8514,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="n">
-        <v>50.66</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="677">
@@ -8528,7 +8522,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="n">
-        <v>50.39</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="678">
@@ -8536,7 +8530,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="n">
-        <v>50.13</v>
+        <v>49.87</v>
       </c>
     </row>
     <row r="679">
@@ -8544,7 +8538,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="n">
-        <v>50.13</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="680">
@@ -8552,7 +8546,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="n">
-        <v>49.87</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="681">
@@ -8560,7 +8554,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="n">
-        <v>49.34</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="682">
@@ -8568,7 +8562,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="n">
-        <v>49.08</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="683">
@@ -8576,7 +8570,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="n">
-        <v>48.82</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="684">
@@ -8584,7 +8578,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="n">
-        <v>48.56</v>
+        <v>48.03</v>
       </c>
     </row>
     <row r="685">
@@ -8592,7 +8586,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="n">
-        <v>48.56</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="686">
@@ -8600,7 +8594,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="n">
-        <v>48.03</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="687">
@@ -8608,7 +8602,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="n">
-        <v>47.51</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="688">
@@ -8624,7 +8618,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="n">
-        <v>46.98</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="690">
@@ -8632,7 +8626,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="n">
-        <v>46.98</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="691">
@@ -8640,7 +8634,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="n">
-        <v>46.72</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="692">
@@ -8648,7 +8642,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="n">
-        <v>46.72</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="693">
@@ -8656,7 +8650,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="n">
-        <v>45.93</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="694">
@@ -8664,7 +8658,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="n">
-        <v>45.93</v>
+        <v>44.88</v>
       </c>
     </row>
     <row r="695">
@@ -8672,7 +8666,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="n">
-        <v>45.67</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="696">
@@ -8680,7 +8674,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="n">
-        <v>44.88</v>
+        <v>44.09</v>
       </c>
     </row>
     <row r="697">
@@ -8688,7 +8682,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="n">
-        <v>44.36</v>
+        <v>44.09</v>
       </c>
     </row>
     <row r="698">
@@ -8696,7 +8690,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="n">
-        <v>44.09</v>
+        <v>43.83</v>
       </c>
     </row>
     <row r="699">
@@ -8704,7 +8698,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="n">
-        <v>44.09</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="700">
@@ -8712,7 +8706,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="n">
-        <v>43.83</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="701">
@@ -8720,7 +8714,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="n">
-        <v>43.57</v>
+        <v>42.78</v>
       </c>
     </row>
     <row r="702">
@@ -8728,7 +8722,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="n">
-        <v>43.31</v>
+        <v>42.78</v>
       </c>
     </row>
     <row r="703">
@@ -8752,7 +8746,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="n">
-        <v>42.78</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="706">
@@ -8760,7 +8754,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="n">
-        <v>42.78</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="707">
@@ -8768,7 +8762,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="n">
-        <v>42.52</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="708">
@@ -8776,7 +8770,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="n">
-        <v>42.52</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="709">
@@ -8784,7 +8778,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="n">
-        <v>41.99</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="710">
@@ -8792,7 +8786,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="n">
-        <v>41.99</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="711">
@@ -8800,7 +8794,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="n">
-        <v>41.47</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="712">
@@ -8824,7 +8818,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="n">
-        <v>41.21</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="715">
@@ -8832,7 +8826,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="n">
-        <v>41.21</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="716">
@@ -8840,7 +8834,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="n">
-        <v>40.94</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="717">
@@ -8848,7 +8842,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="n">
-        <v>40.68</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="718">
@@ -8856,7 +8850,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="n">
-        <v>39.9</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="719">
@@ -8864,7 +8858,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="n">
-        <v>39.63</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="720">
@@ -8880,7 +8874,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="n">
-        <v>39.37</v>
+        <v>39.11</v>
       </c>
     </row>
     <row r="722">
@@ -8888,7 +8882,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="n">
-        <v>39.37</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="723">
@@ -8896,7 +8890,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="n">
-        <v>39.11</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="724">
@@ -8904,7 +8898,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="n">
-        <v>38.06</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="725">
@@ -8912,7 +8906,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="n">
-        <v>37.8</v>
+        <v>37.27</v>
       </c>
     </row>
     <row r="726">
@@ -8920,7 +8914,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="n">
-        <v>37.8</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="727">
@@ -8928,7 +8922,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="n">
-        <v>37.27</v>
+        <v>34.91</v>
       </c>
     </row>
     <row r="728">
@@ -8936,7 +8930,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="n">
-        <v>36.75</v>
+        <v>34.12</v>
       </c>
     </row>
     <row r="729">
@@ -8944,7 +8938,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="n">
-        <v>34.91</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="730">
@@ -8952,7 +8946,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="n">
-        <v>34.12</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="731">
@@ -8976,7 +8970,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="n">
-        <v>33.86</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="734">
@@ -8984,7 +8978,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="n">
-        <v>33.86</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="735">
@@ -8992,7 +8986,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="n">
-        <v>33.6</v>
+        <v>32.55</v>
       </c>
     </row>
     <row r="736">
@@ -9000,7 +8994,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="n">
-        <v>33.6</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="737">
@@ -9008,7 +9002,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="n">
-        <v>32.55</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="738">
@@ -9032,7 +9026,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="n">
-        <v>32.28</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="741">
@@ -9040,7 +9034,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="n">
-        <v>32.28</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="742">
@@ -9048,7 +9042,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="n">
-        <v>31.5</v>
+        <v>31.23</v>
       </c>
     </row>
     <row r="743">
@@ -9056,7 +9050,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="n">
-        <v>31.5</v>
+        <v>31.23</v>
       </c>
     </row>
     <row r="744">
@@ -9064,7 +9058,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="n">
-        <v>31.23</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="745">
@@ -9072,7 +9066,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="n">
-        <v>31.23</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="746">
@@ -9080,7 +9074,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="n">
-        <v>30.97</v>
+        <v>30.71</v>
       </c>
     </row>
     <row r="747">
@@ -9088,7 +9082,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="n">
-        <v>30.71</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="748">
@@ -9096,7 +9090,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="n">
-        <v>30.71</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="749">
@@ -9104,7 +9098,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="n">
-        <v>30.45</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="750">
@@ -9112,7 +9106,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="n">
-        <v>29.66</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="751">
@@ -9128,7 +9122,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="n">
-        <v>29.4</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="753">
@@ -9136,7 +9130,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="n">
-        <v>29.4</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="754">
@@ -9144,7 +9138,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="n">
-        <v>28.87</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="755">
@@ -9160,7 +9154,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="n">
-        <v>28.35</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="757">
@@ -9168,7 +9162,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="n">
-        <v>28.35</v>
+        <v>27.82</v>
       </c>
     </row>
     <row r="758">
@@ -9176,7 +9170,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="n">
-        <v>28.08</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="759">
@@ -9184,7 +9178,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="n">
-        <v>27.82</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="760">
@@ -9192,7 +9186,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="n">
-        <v>27.56</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="761">
@@ -9200,7 +9194,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="n">
-        <v>27.03</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="762">
@@ -9208,7 +9202,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="n">
-        <v>26.77</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="763">
@@ -9224,7 +9218,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="n">
-        <v>25.46</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="765">
@@ -9232,7 +9226,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="n">
-        <v>25.46</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="766">
@@ -9240,7 +9234,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="n">
-        <v>24.93</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="767">
@@ -9248,7 +9242,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="n">
-        <v>23.62</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="768">
@@ -9256,7 +9250,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="n">
-        <v>23.62</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="769">
@@ -9272,7 +9266,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="n">
-        <v>23.1</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="771">
@@ -9280,7 +9274,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="n">
-        <v>23.1</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="772">
@@ -9288,7 +9282,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="n">
-        <v>22.83</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="773">
@@ -9296,7 +9290,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="n">
-        <v>22.57</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="774">
@@ -9304,7 +9298,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="n">
-        <v>22.57</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="775">
@@ -9312,7 +9306,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="n">
-        <v>22.31</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="776">
@@ -9320,7 +9314,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="n">
-        <v>22.31</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="777">
@@ -9328,7 +9322,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="n">
-        <v>21.78</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="778">
@@ -9336,7 +9330,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="n">
-        <v>21.26</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="779">
@@ -9344,7 +9338,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="n">
-        <v>21.26</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="780">
@@ -9352,7 +9346,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="n">
-        <v>20.47</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="781">
@@ -9360,7 +9354,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="n">
-        <v>20.47</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="782">
@@ -9368,7 +9362,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="n">
-        <v>19.42</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="783">
@@ -9376,7 +9370,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="n">
-        <v>18.9</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="784">
@@ -9384,7 +9378,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="n">
-        <v>18.37</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="785">
@@ -9392,7 +9386,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="n">
-        <v>18.11</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="786">
@@ -9400,7 +9394,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="n">
-        <v>17.59</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="787">
@@ -9408,7 +9402,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="n">
-        <v>17.32</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="788">
@@ -9416,7 +9410,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="n">
-        <v>17.32</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="789">
@@ -9424,7 +9418,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="n">
-        <v>17.06</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="790">
@@ -9432,7 +9426,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="n">
-        <v>16.54</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="791">
@@ -9448,7 +9442,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="n">
-        <v>16.27</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="793">
@@ -9456,7 +9450,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="n">
-        <v>16.27</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="794">
@@ -9464,7 +9458,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="n">
-        <v>16.01</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="795">
@@ -9472,7 +9466,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="n">
-        <v>15.75</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="796">
@@ -9480,7 +9474,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="n">
-        <v>14.17</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="797">
@@ -9488,7 +9482,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="n">
-        <v>14.17</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="798">
@@ -9496,7 +9490,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="n">
-        <v>13.65</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="799">
@@ -9504,7 +9498,7 @@
         <v>799</v>
       </c>
       <c r="B799" t="n">
-        <v>13.39</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="800">
@@ -9512,7 +9506,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="n">
-        <v>12.07</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="801">
@@ -9520,7 +9514,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="n">
-        <v>12.07</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="802">
@@ -9528,7 +9522,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="n">
-        <v>11.81</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="803">
@@ -9536,7 +9530,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="n">
-        <v>11.55</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="804">
@@ -9552,7 +9546,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="806">
@@ -9560,7 +9554,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="n">
-        <v>11.29</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="807">
@@ -9576,7 +9570,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="n">
-        <v>11.02</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="809">
@@ -9584,7 +9578,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="n">
-        <v>11.02</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="810">
@@ -9592,7 +9586,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="n">
-        <v>10.76</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="811">
@@ -9600,7 +9594,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="n">
-        <v>10.76</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="812">
@@ -9608,7 +9602,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="n">
-        <v>10.5</v>
+        <v>9.97</v>
       </c>
     </row>
     <row r="813">
@@ -9616,7 +9610,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="n">
-        <v>10.24</v>
+        <v>9.97</v>
       </c>
     </row>
     <row r="814">
@@ -9648,7 +9642,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="n">
-        <v>9.97</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="818">
@@ -9656,7 +9650,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="n">
-        <v>9.97</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="819">
@@ -9664,7 +9658,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="n">
-        <v>9.19</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="820">
@@ -9672,7 +9666,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="n">
-        <v>8.92</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="821">
@@ -9680,7 +9674,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="n">
-        <v>8.92</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="822">
@@ -9704,7 +9698,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="n">
-        <v>8.66</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="825">
@@ -9712,7 +9706,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="n">
-        <v>8.66</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="826">
@@ -9720,7 +9714,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="n">
-        <v>8.4</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="827">
@@ -9728,7 +9722,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="n">
-        <v>8.14</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="828">
@@ -9736,7 +9730,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="n">
-        <v>7.87</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="829">
@@ -9744,7 +9738,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="n">
-        <v>7.61</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="830">
@@ -9752,7 +9746,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="n">
-        <v>7.35</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="831">
@@ -9760,7 +9754,7 @@
         <v>831</v>
       </c>
       <c r="B831" t="n">
-        <v>7.35</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="832">
@@ -9776,7 +9770,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="n">
-        <v>7.09</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="834">
@@ -9784,7 +9778,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="n">
-        <v>7.09</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="835">
@@ -9792,7 +9786,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="n">
-        <v>6.82</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="836">
@@ -9808,7 +9802,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="n">
-        <v>6.56</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="838">
@@ -9816,7 +9810,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="n">
-        <v>6.56</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="839">
@@ -9832,7 +9826,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="n">
-        <v>6.3</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="841">
@@ -9840,7 +9834,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="n">
-        <v>6.3</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="842">
@@ -9856,7 +9850,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="n">
-        <v>6.04</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="844">
@@ -9864,7 +9858,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="n">
-        <v>6.04</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="845">
@@ -9872,7 +9866,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="n">
-        <v>5.51</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="846">
@@ -9880,7 +9874,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="n">
-        <v>5.51</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="847">
@@ -9888,7 +9882,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="n">
-        <v>5.25</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="848">
@@ -9896,7 +9890,7 @@
         <v>848</v>
       </c>
       <c r="B848" t="n">
-        <v>5.25</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="849">
@@ -9904,7 +9898,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="n">
-        <v>4.99</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="850">
@@ -9912,7 +9906,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="n">
-        <v>4.99</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="851">
@@ -9920,7 +9914,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="n">
-        <v>4.72</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="852">
@@ -9928,7 +9922,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="n">
-        <v>4.46</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="853">
@@ -9936,7 +9930,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="n">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="854">
@@ -9944,7 +9938,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="n">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="855">
@@ -9960,7 +9954,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="857">
@@ -9968,7 +9962,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="858">
@@ -9992,7 +9986,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="n">
-        <v>3.67</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="861">
@@ -10000,7 +9994,7 @@
         <v>861</v>
       </c>
       <c r="B861" t="n">
-        <v>3.67</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="862">
@@ -10016,7 +10010,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="864">
@@ -10024,7 +10018,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="865">
@@ -10032,7 +10026,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="n">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="866">
@@ -10040,7 +10034,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="n">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="867">
@@ -10064,7 +10058,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="n">
-        <v>2.89</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="870">
@@ -10072,7 +10066,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="n">
-        <v>2.89</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="871">
@@ -10112,7 +10106,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="876">
@@ -10120,7 +10114,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="877">
@@ -10144,7 +10138,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="880">
@@ -10152,7 +10146,7 @@
         <v>880</v>
       </c>
       <c r="B880" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="881">
@@ -10168,7 +10162,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="883">
@@ -10176,7 +10170,7 @@
         <v>883</v>
       </c>
       <c r="B883" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="884">
@@ -10192,7 +10186,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="886">
@@ -10200,7 +10194,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="887">
@@ -10216,7 +10210,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="889">
@@ -10224,7 +10218,7 @@
         <v>889</v>
       </c>
       <c r="B889" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="890">
@@ -10240,7 +10234,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="n">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="892">
@@ -10248,7 +10242,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="n">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="893">
@@ -10280,7 +10274,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="897">
@@ -10288,7 +10282,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="898">
@@ -10328,7 +10322,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="903">
@@ -10336,7 +10330,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="904">
@@ -10352,7 +10346,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -10360,7 +10354,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -10480,22 +10474,6 @@
         <v>921</v>
       </c>
       <c r="B921" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="s">
-        <v>922</v>
-      </c>
-      <c r="B922" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="s">
-        <v>923</v>
-      </c>
-      <c r="B923" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/originals/percentage_by_vars.xlsx
+++ b/data/originals/percentage_by_vars.xlsx
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">Travel_period</t>
   </si>
   <si>
-    <t xml:space="preserve">Hygiene</t>
+    <t xml:space="preserve">Cosmetics</t>
   </si>
   <si>
     <t xml:space="preserve">NS11-12 marine group_F</t>
@@ -1976,6 +1976,9 @@
     <t xml:space="preserve">UCG-004_G</t>
   </si>
   <si>
+    <t xml:space="preserve">Antibiotics_usage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haemophilus_G</t>
   </si>
   <si>
@@ -2070,9 +2073,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enterococcaceae_F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibiotics_usage</t>
   </si>
   <si>
     <t xml:space="preserve">Intestinimonas_G</t>
@@ -8354,7 +8354,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="n">
-        <v>53.28</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="657">
@@ -8378,7 +8378,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="n">
-        <v>52.49</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="660">
@@ -8402,7 +8402,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="n">
-        <v>52.23</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="663">
@@ -8418,7 +8418,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="n">
-        <v>51.97</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="665">
@@ -8442,7 +8442,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="n">
-        <v>51.18</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="668">
@@ -8450,7 +8450,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="n">
-        <v>50.92</v>
+        <v>51.18</v>
       </c>
     </row>
     <row r="669">
@@ -8474,7 +8474,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="n">
-        <v>50.66</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="672">
@@ -8506,7 +8506,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="n">
-        <v>50.39</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="676">
@@ -8514,7 +8514,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="n">
-        <v>50.13</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="677">
@@ -8530,7 +8530,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="n">
-        <v>49.87</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="679">
@@ -8538,7 +8538,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="n">
-        <v>49.34</v>
+        <v>49.87</v>
       </c>
     </row>
     <row r="680">
@@ -8546,7 +8546,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="n">
-        <v>49.08</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="681">
@@ -8554,7 +8554,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="n">
-        <v>48.82</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="682">
@@ -8562,7 +8562,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="n">
-        <v>48.56</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="683">
@@ -8578,7 +8578,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="n">
-        <v>48.03</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="685">
@@ -8586,7 +8586,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="n">
-        <v>47.51</v>
+        <v>48.03</v>
       </c>
     </row>
     <row r="686">
@@ -8594,7 +8594,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="n">
-        <v>46.98</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="687">

--- a/data/originals/percentage_by_vars.xlsx
+++ b/data/originals/percentage_by_vars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="923">
   <si>
     <t xml:space="preserve">column</t>
   </si>
@@ -2304,6 +2304,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sphingobacteriales_O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age_range</t>
   </si>
   <si>
     <t xml:space="preserve">UBA1819_G</t>
@@ -9226,7 +9229,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="n">
-        <v>23.62</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="766">
@@ -9242,7 +9245,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="n">
-        <v>23.1</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="768">
@@ -9266,7 +9269,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="n">
-        <v>22.83</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="771">
@@ -9274,7 +9277,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="n">
-        <v>22.57</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="772">
@@ -9290,7 +9293,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="n">
-        <v>22.31</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="774">
@@ -9306,7 +9309,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="n">
-        <v>21.78</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="776">
@@ -9314,7 +9317,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="n">
-        <v>21.26</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="777">
@@ -9330,7 +9333,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="n">
-        <v>20.47</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="779">
@@ -9346,7 +9349,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="n">
-        <v>19.42</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="781">
@@ -9354,7 +9357,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="n">
-        <v>18.9</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="782">
@@ -9362,7 +9365,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="n">
-        <v>18.37</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="783">
@@ -9370,7 +9373,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="n">
-        <v>18.11</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="784">
@@ -9378,7 +9381,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="n">
-        <v>17.59</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="785">
@@ -9386,7 +9389,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="n">
-        <v>17.32</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="786">
@@ -9402,7 +9405,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="n">
-        <v>17.06</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="788">
@@ -9410,7 +9413,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="n">
-        <v>16.54</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="789">
@@ -9418,7 +9421,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="n">
-        <v>16.27</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="790">
@@ -9442,7 +9445,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="n">
-        <v>16.01</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="793">
@@ -9450,7 +9453,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="n">
-        <v>15.75</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="794">
@@ -9458,7 +9461,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="n">
-        <v>14.17</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="795">
@@ -9474,7 +9477,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="n">
-        <v>13.65</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="797">
@@ -9482,7 +9485,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="n">
-        <v>13.39</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="798">
@@ -9490,7 +9493,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="n">
-        <v>12.07</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="799">
@@ -9506,7 +9509,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="n">
-        <v>11.81</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="801">
@@ -9514,7 +9517,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="n">
-        <v>11.55</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="802">
@@ -9522,7 +9525,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="n">
-        <v>11.29</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="803">
@@ -9546,7 +9549,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="n">
-        <v>11.02</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="806">
@@ -9570,7 +9573,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="n">
-        <v>10.76</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="809">
@@ -9586,7 +9589,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="n">
-        <v>10.5</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="811">
@@ -9594,7 +9597,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="n">
-        <v>10.24</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="812">
@@ -9602,7 +9605,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="n">
-        <v>9.97</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="813">
@@ -9642,7 +9645,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="n">
-        <v>9.19</v>
+        <v>9.97</v>
       </c>
     </row>
     <row r="818">
@@ -9650,7 +9653,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="n">
-        <v>8.92</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="819">
@@ -9666,7 +9669,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="n">
-        <v>8.66</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="821">
@@ -9698,7 +9701,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="n">
-        <v>8.4</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="825">
@@ -9706,7 +9709,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="n">
-        <v>8.14</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="826">
@@ -9714,7 +9717,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="n">
-        <v>7.87</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="827">
@@ -9722,7 +9725,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="n">
-        <v>7.61</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="828">
@@ -9730,7 +9733,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="n">
-        <v>7.35</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="829">
@@ -9746,7 +9749,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="n">
-        <v>7.09</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="831">
@@ -9770,7 +9773,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="n">
-        <v>6.82</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="834">
@@ -9778,7 +9781,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="n">
-        <v>6.56</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="835">
@@ -9802,7 +9805,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="n">
-        <v>6.3</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="838">
@@ -9826,7 +9829,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="n">
-        <v>6.04</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="841">
@@ -9850,7 +9853,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="n">
-        <v>5.51</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="844">
@@ -9866,7 +9869,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="n">
-        <v>5.25</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="846">
@@ -9882,7 +9885,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="n">
-        <v>4.99</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="848">
@@ -9898,7 +9901,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="n">
-        <v>4.72</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="850">
@@ -9906,7 +9909,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="n">
-        <v>4.46</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="851">
@@ -9914,7 +9917,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="n">
-        <v>4.2</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="852">
@@ -9930,7 +9933,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="n">
-        <v>3.94</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="854">
@@ -9954,7 +9957,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="857">
@@ -9986,7 +9989,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="n">
-        <v>3.41</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="861">
@@ -10010,7 +10013,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="864">
@@ -10026,7 +10029,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="n">
-        <v>2.89</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="866">
@@ -10058,7 +10061,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="n">
-        <v>2.62</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="870">
@@ -10106,7 +10109,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="876">
@@ -10138,7 +10141,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="880">
@@ -10162,7 +10165,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="883">
@@ -10186,7 +10189,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="886">
@@ -10210,7 +10213,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="n">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="889">
@@ -10234,7 +10237,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="n">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="892">
@@ -10274,7 +10277,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="n">
-        <v>0.52</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="897">
@@ -10322,7 +10325,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="903">
@@ -10346,7 +10349,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="906">
@@ -10474,6 +10477,14 @@
         <v>921</v>
       </c>
       <c r="B921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>922</v>
+      </c>
+      <c r="B922" t="n">
         <v>0</v>
       </c>
     </row>
